--- a/data/custom_atlas.xlsx
+++ b/data/custom_atlas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas_dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas_dev/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81B4BE4-8792-384A-9E44-2C14FE987C1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827F2BE7-8078-9B41-8E79-C3014EA30468}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Precentral_R</t>
   </si>
@@ -127,12 +127,6 @@
   </si>
   <si>
     <t>Temporal_Sup_R</t>
-  </si>
-  <si>
-    <t>Temporal_Pole_L</t>
-  </si>
-  <si>
-    <t>Temporal_Pole_R</t>
   </si>
   <si>
     <t>Temporal_Mid_L</t>
@@ -523,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -537,27 +531,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>1</v>
-      </c>
-      <c r="C2">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -567,9 +558,6 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>18</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -848,6 +836,9 @@
       <c r="B28">
         <v>57</v>
       </c>
+      <c r="C28">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -856,6 +847,9 @@
       <c r="B29">
         <v>58</v>
       </c>
+      <c r="C29">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -930,6 +924,9 @@
       <c r="B36">
         <v>81</v>
       </c>
+      <c r="C36">
+        <v>83</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -938,13 +935,16 @@
       <c r="B37">
         <v>82</v>
       </c>
+      <c r="C37">
+        <v>84</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B38">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C38">
         <v>87</v>
@@ -955,7 +955,7 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C39">
         <v>88</v>
@@ -966,7 +966,7 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -974,22 +974,6 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43">
         <v>90</v>
       </c>
     </row>

--- a/data/custom_atlas.xlsx
+++ b/data/custom_atlas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbernabei/Documents/PhD_Research/atlas_project/iEEG_atlas_dev/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827F2BE7-8078-9B41-8E79-C3014EA30468}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510C12FA-CEC1-3044-937A-FD296B526F96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,12 +69,6 @@
     <t>Cingulum_R</t>
   </si>
   <si>
-    <t>Limbic_L</t>
-  </si>
-  <si>
-    <t>Limbic_R</t>
-  </si>
-  <si>
     <t>ParaHippocampal_L</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>Roi_name</t>
+  </si>
+  <si>
+    <t>Amyg_Hipp_L</t>
+  </si>
+  <si>
+    <t>Amyg_Hipp_R</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -531,21 +531,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -720,8 +720,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
+      <c r="A18" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B18">
         <v>37</v>
@@ -731,8 +731,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
+      <c r="A19" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B19">
         <v>38</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>39</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>40</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>43</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>44</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>49</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>50</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>55</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>56</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>57</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>58</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>59</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>60</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>63</v>
@@ -884,9 +884,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>64</v>
@@ -895,9 +895,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>67</v>
@@ -906,9 +906,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35">
         <v>68</v>
@@ -917,9 +917,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36">
         <v>81</v>
@@ -927,10 +927,13 @@
       <c r="C36">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37">
         <v>82</v>
@@ -938,10 +941,13 @@
       <c r="C37">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B38">
         <v>85</v>
@@ -950,9 +956,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B39">
         <v>86</v>
@@ -961,17 +967,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41">
         <v>90</v>
